--- a/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6694CE98-C1C8-4333-B48E-33FB509B18FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{926ACBE6-EEC1-4894-8D5B-9D425B3C56AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7226602-0D74-40B5-8074-AA11F5CA2264}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{132F7838-5EAC-4E7A-B8B4-F0B33BE64CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,544 +74,559 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>Mal o insuficientemente informado</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>Bien o suficientemente informado</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>Bastante o muy bien informado</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>Mal o insuficientemente informado</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>Bien o suficientemente informado</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>Bastante o muy bien informado</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -635,7 +650,7 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>44,82%</t>
+    <t>45,87%</t>
   </si>
   <si>
     <t>27,11%</t>
@@ -647,13 +662,13 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>46,82%</t>
+    <t>48,1%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>19,81%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -665,16 +680,16 @@
     <t>48,3%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>80,19%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -686,118 +701,112 @@
     <t>29,43%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>14,32%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>36,39%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1212,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF90E82-0F5D-40D5-A000-6984308B9724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC03E54-76A6-4056-86E0-71AE8C7DB851}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1420,16 +1429,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>70</v>
@@ -1438,13 +1447,13 @@
         <v>75108</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -1453,13 +1462,13 @@
         <v>56698</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>128</v>
@@ -1468,19 +1477,19 @@
         <v>131806</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>64</v>
@@ -1489,13 +1498,13 @@
         <v>64471</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -1504,13 +1513,13 @@
         <v>46326</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>111</v>
@@ -1519,13 +1528,13 @@
         <v>110796</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1549,13 @@
         <v>171502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -1555,13 +1564,13 @@
         <v>142579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -1570,18 +1579,18 @@
         <v>314080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1593,13 +1602,13 @@
         <v>22349</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -1608,13 +1617,13 @@
         <v>28126</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -1677,16 +1686,16 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>212</v>
@@ -1695,13 +1704,13 @@
         <v>222581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -1710,13 +1719,13 @@
         <v>134133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -1725,19 +1734,19 @@
         <v>356714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>227</v>
@@ -1746,13 +1755,13 @@
         <v>239016</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -1761,13 +1770,13 @@
         <v>120757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -1776,13 +1785,13 @@
         <v>359773</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1806,13 @@
         <v>550346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>317</v>
@@ -1812,13 +1821,13 @@
         <v>334924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
@@ -1827,18 +1836,18 @@
         <v>885271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1850,13 +1859,13 @@
         <v>16435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1865,13 +1874,13 @@
         <v>16224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1880,13 +1889,13 @@
         <v>32659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1910,13 @@
         <v>46186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -1916,13 +1925,13 @@
         <v>54718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1931,19 +1940,19 @@
         <v>100904</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>203</v>
@@ -1952,13 +1961,13 @@
         <v>206266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -1967,13 +1976,13 @@
         <v>105539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>303</v>
@@ -1982,19 +1991,19 @@
         <v>311804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>275</v>
@@ -2003,13 +2012,13 @@
         <v>287032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -2018,13 +2027,13 @@
         <v>122560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -2033,13 +2042,13 @@
         <v>409591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2063,13 @@
         <v>555919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>282</v>
@@ -2069,13 +2078,13 @@
         <v>299040</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>819</v>
@@ -2084,18 +2093,18 @@
         <v>854958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2107,13 +2116,13 @@
         <v>11580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2122,13 +2131,13 @@
         <v>16288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2137,13 +2146,13 @@
         <v>27868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2167,13 @@
         <v>40335</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2173,13 +2182,13 @@
         <v>22762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2188,19 +2197,19 @@
         <v>63098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>150</v>
@@ -2209,13 +2218,13 @@
         <v>161041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -2224,13 +2233,13 @@
         <v>69014</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>216</v>
@@ -2239,19 +2248,19 @@
         <v>230055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>203</v>
@@ -2260,13 +2269,13 @@
         <v>217020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2275,13 +2284,13 @@
         <v>59031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -2290,13 +2299,13 @@
         <v>276051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2320,13 @@
         <v>429976</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -2326,13 +2335,13 @@
         <v>167096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>560</v>
@@ -2341,18 +2350,18 @@
         <v>597072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2364,13 +2373,13 @@
         <v>2767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2379,13 +2388,13 @@
         <v>3057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2394,13 +2403,13 @@
         <v>5824</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2424,13 @@
         <v>18009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2430,13 +2439,13 @@
         <v>10916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -2445,19 +2454,19 @@
         <v>28925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>59</v>
@@ -2466,13 +2475,13 @@
         <v>56329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -2481,13 +2490,13 @@
         <v>26074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -2496,19 +2505,19 @@
         <v>82403</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>85</v>
@@ -2517,13 +2526,13 @@
         <v>84468</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -2532,13 +2541,13 @@
         <v>21709</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -2547,13 +2556,13 @@
         <v>106176</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2577,13 @@
         <v>161573</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -2583,13 +2592,13 @@
         <v>61756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>224</v>
@@ -2598,18 +2607,18 @@
         <v>223329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2636,13 +2645,13 @@
         <v>947</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2651,13 +2660,13 @@
         <v>947</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2687,13 +2696,13 @@
         <v>982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2702,19 +2711,19 @@
         <v>982</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -2723,13 +2732,13 @@
         <v>3386</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2738,13 +2747,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2753,19 +2762,19 @@
         <v>4182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2774,13 +2783,13 @@
         <v>1652</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2789,13 +2798,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2804,13 +2813,13 @@
         <v>2549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2834,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2840,13 +2849,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2855,13 +2864,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,28 +2887,28 @@
         <v>64157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>73</v>
       </c>
       <c r="I34" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
@@ -2908,13 +2917,13 @@
         <v>141665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2938,13 @@
         <v>191827</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2944,13 +2953,13 @@
         <v>167976</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>340</v>
@@ -2959,19 +2968,19 @@
         <v>359803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>697</v>
@@ -2980,13 +2989,13 @@
         <v>724712</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="H36" s="7">
         <v>378</v>
@@ -2995,13 +3004,13 @@
         <v>392253</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>1075</v>
@@ -3010,19 +3019,19 @@
         <v>1116965</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>856</v>
@@ -3031,28 +3040,28 @@
         <v>893658</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>358</v>
       </c>
       <c r="I37" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>1214</v>
@@ -3061,13 +3070,13 @@
         <v>1264937</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,28 +3091,28 @@
         <v>1874354</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>967</v>
       </c>
       <c r="I38" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2760</v>
@@ -3112,18 +3121,18 @@
         <v>2883369</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926ACBE6-EEC1-4894-8D5B-9D425B3C56AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{677E02D4-E704-4500-9B56-DFE23CA44249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{132F7838-5EAC-4E7A-B8B4-F0B33BE64CC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80589D7B-D181-45E4-8C6C-678EBA75860D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,54 +74,57 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
     <t>Mal o insuficientemente informado</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
+    <t>11,53%</t>
+  </si>
+  <si>
     <t>19,48%</t>
   </si>
   <si>
@@ -131,28 +134,28 @@
     <t>43,79%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -161,28 +164,28 @@
     <t>37,59%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,619 +197,613 @@
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>36,06%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>11,78%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,39%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1221,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC03E54-76A6-4056-86E0-71AE8C7DB851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F8A110-6E27-4C57-A27A-EEE8477B87F2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1429,16 +1426,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>70</v>
@@ -1447,13 +1444,13 @@
         <v>75108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -1462,13 +1459,13 @@
         <v>56698</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>128</v>
@@ -1477,19 +1474,19 @@
         <v>131806</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>64</v>
@@ -1498,13 +1495,13 @@
         <v>64471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -1513,13 +1510,13 @@
         <v>46326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>111</v>
@@ -1528,13 +1525,13 @@
         <v>110796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,13 +1546,13 @@
         <v>171502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -1564,13 +1561,13 @@
         <v>142579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -1579,18 +1576,18 @@
         <v>314080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1602,13 +1599,13 @@
         <v>22349</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -1617,13 +1614,13 @@
         <v>28126</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -1632,13 +1629,13 @@
         <v>50475</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1650,13 @@
         <v>66399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1668,13 +1665,13 @@
         <v>51909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -1683,19 +1680,19 @@
         <v>118308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>212</v>
@@ -1704,13 +1701,13 @@
         <v>222581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -1719,13 +1716,13 @@
         <v>134133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -1734,19 +1731,19 @@
         <v>356714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>227</v>
@@ -1755,13 +1752,13 @@
         <v>239016</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -1770,13 +1767,13 @@
         <v>120757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -1785,13 +1782,13 @@
         <v>359773</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1803,13 @@
         <v>550346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>317</v>
@@ -1821,13 +1818,13 @@
         <v>334924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
@@ -1836,18 +1833,18 @@
         <v>885271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1859,13 +1856,13 @@
         <v>16435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1874,13 +1871,13 @@
         <v>16224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1889,13 +1886,13 @@
         <v>32659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1907,13 @@
         <v>46186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -1925,13 +1922,13 @@
         <v>54718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1940,19 +1937,19 @@
         <v>100904</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>203</v>
@@ -1961,13 +1958,13 @@
         <v>206266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -1976,13 +1973,13 @@
         <v>105539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>303</v>
@@ -1991,19 +1988,19 @@
         <v>311804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>275</v>
@@ -2012,13 +2009,13 @@
         <v>287032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -2027,13 +2024,13 @@
         <v>122560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -2042,13 +2039,13 @@
         <v>409591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2060,13 @@
         <v>555919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>282</v>
@@ -2078,13 +2075,13 @@
         <v>299040</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>819</v>
@@ -2093,18 +2090,18 @@
         <v>854958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2113,13 @@
         <v>11580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2131,13 +2128,13 @@
         <v>16288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2146,13 +2143,13 @@
         <v>27868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2164,13 @@
         <v>40335</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2182,13 +2179,13 @@
         <v>22762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2197,19 +2194,19 @@
         <v>63098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>150</v>
@@ -2218,13 +2215,13 @@
         <v>161041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -2233,13 +2230,13 @@
         <v>69014</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>216</v>
@@ -2248,19 +2245,19 @@
         <v>230055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>203</v>
@@ -2269,13 +2266,13 @@
         <v>217020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2284,13 +2281,13 @@
         <v>59031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -2299,13 +2296,13 @@
         <v>276051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2317,13 @@
         <v>429976</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -2335,13 +2332,13 @@
         <v>167096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>560</v>
@@ -2350,18 +2347,18 @@
         <v>597072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2373,13 +2370,13 @@
         <v>2767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2394,7 +2391,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2403,13 +2400,13 @@
         <v>5824</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2421,13 @@
         <v>18009</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2439,13 +2436,13 @@
         <v>10916</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -2454,19 +2451,19 @@
         <v>28925</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>59</v>
@@ -2475,13 +2472,13 @@
         <v>56329</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -2490,13 +2487,13 @@
         <v>26074</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -2505,19 +2502,19 @@
         <v>82403</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>85</v>
@@ -2526,13 +2523,13 @@
         <v>84468</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -2541,13 +2538,13 @@
         <v>21709</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -2556,13 +2553,13 @@
         <v>106176</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2574,13 @@
         <v>161573</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -2592,13 +2589,13 @@
         <v>61756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>224</v>
@@ -2607,18 +2604,18 @@
         <v>223329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2630,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2645,13 +2642,13 @@
         <v>947</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2660,13 +2657,13 @@
         <v>947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2696,13 +2693,13 @@
         <v>982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2711,19 +2708,19 @@
         <v>982</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -2732,13 +2729,13 @@
         <v>3386</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2747,13 +2744,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2762,19 +2759,19 @@
         <v>4182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2783,13 +2780,13 @@
         <v>1652</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2798,13 +2795,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2813,13 +2810,13 @@
         <v>2549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2831,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2849,13 +2846,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2864,13 +2861,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,28 +2884,28 @@
         <v>64157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>73</v>
       </c>
       <c r="I34" s="7">
-        <v>77507</v>
+        <v>77508</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
@@ -2917,13 +2914,13 @@
         <v>141665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2935,13 @@
         <v>191827</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2953,13 +2950,13 @@
         <v>167976</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>340</v>
@@ -2968,19 +2965,19 @@
         <v>359803</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>697</v>
@@ -2989,13 +2986,13 @@
         <v>724712</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H36" s="7">
         <v>378</v>
@@ -3004,13 +3001,13 @@
         <v>392253</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>1075</v>
@@ -3019,19 +3016,19 @@
         <v>1116965</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>856</v>
@@ -3040,28 +3037,28 @@
         <v>893658</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>358</v>
       </c>
       <c r="I37" s="7">
-        <v>371278</v>
+        <v>371279</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>1214</v>
@@ -3070,13 +3067,13 @@
         <v>1264937</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,28 +3088,28 @@
         <v>1874354</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>967</v>
       </c>
       <c r="I38" s="7">
-        <v>1009015</v>
+        <v>1009016</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2760</v>
@@ -3121,18 +3118,18 @@
         <v>2883369</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677E02D4-E704-4500-9B56-DFE23CA44249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D0044A-4C5F-41F9-8928-6B178AA2F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80589D7B-D181-45E4-8C6C-678EBA75860D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F39507-C505-459A-92A7-E0E346AA59A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,28 +104,28 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -134,28 +134,28 @@
     <t>43,79%</t>
   </si>
   <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -164,28 +164,28 @@
     <t>37,59%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,103 @@
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
     <t>15,92%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -308,316 +302,316 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -635,31 +629,31 @@
     <t>26,15%</t>
   </si>
   <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>47,95%</t>
+    <t>46,82%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,86%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -671,100 +665,100 @@
     <t>48,3%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>80,14%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,83%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -773,37 +767,37 @@
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1218,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F8A110-6E27-4C57-A27A-EEE8477B87F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF506737-EEBC-442B-B1CC-4A6017173EED}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -1629,13 +1623,13 @@
         <v>50475</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,13 +1644,13 @@
         <v>66399</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1665,13 +1659,13 @@
         <v>51909</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -1680,13 +1674,13 @@
         <v>118308</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,13 +1695,13 @@
         <v>222581</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -1716,13 +1710,13 @@
         <v>134133</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -1731,13 +1725,13 @@
         <v>356714</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,13 +1746,13 @@
         <v>239016</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -1767,13 +1761,13 @@
         <v>120757</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -1782,13 +1776,13 @@
         <v>359773</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,7 +1838,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1856,13 +1850,13 @@
         <v>16435</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1871,13 +1865,13 @@
         <v>16224</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1886,13 +1880,13 @@
         <v>32659</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1901,13 @@
         <v>46186</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -1922,13 +1916,13 @@
         <v>54718</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1937,13 +1931,13 @@
         <v>100904</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1952,13 @@
         <v>206266</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -1973,13 +1967,13 @@
         <v>105539</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>303</v>
@@ -1988,13 +1982,13 @@
         <v>311804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,13 +2003,13 @@
         <v>287032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -2024,13 +2018,13 @@
         <v>122560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -2039,13 +2033,13 @@
         <v>409591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,7 +2095,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2113,13 +2107,13 @@
         <v>11580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2128,13 +2122,13 @@
         <v>16288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -2143,13 +2137,13 @@
         <v>27868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2158,13 @@
         <v>40335</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2179,13 +2173,13 @@
         <v>22762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2194,13 +2188,13 @@
         <v>63098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2209,13 @@
         <v>161041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -2230,13 +2224,13 @@
         <v>69014</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>216</v>
@@ -2245,13 +2239,13 @@
         <v>230055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2260,13 @@
         <v>217020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2281,13 +2275,13 @@
         <v>59031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -2296,13 +2290,13 @@
         <v>276051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2352,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2370,13 +2364,13 @@
         <v>2767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2385,13 +2379,13 @@
         <v>3057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2400,13 +2394,13 @@
         <v>5824</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2415,13 @@
         <v>18009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2436,13 +2430,13 @@
         <v>10916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -2451,13 +2445,13 @@
         <v>28925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2466,13 @@
         <v>56329</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -2487,13 +2481,13 @@
         <v>26074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -2502,13 +2496,13 @@
         <v>82403</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2517,13 @@
         <v>84468</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -2538,13 +2532,13 @@
         <v>21709</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -2553,13 +2547,13 @@
         <v>106176</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,7 +2609,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2627,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2642,13 +2636,13 @@
         <v>947</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2657,13 +2651,13 @@
         <v>947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2693,13 +2687,13 @@
         <v>982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2708,13 +2702,13 @@
         <v>982</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2723,13 @@
         <v>3386</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2744,13 +2738,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2759,13 +2753,13 @@
         <v>4182</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2774,13 @@
         <v>1652</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2795,13 +2789,13 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2810,13 +2804,13 @@
         <v>2549</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2878,13 @@
         <v>64157</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>73</v>
@@ -2899,13 +2893,13 @@
         <v>77508</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>131</v>
@@ -2914,13 +2908,13 @@
         <v>141665</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2929,13 @@
         <v>191827</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2950,13 +2944,13 @@
         <v>167976</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>340</v>
@@ -2965,13 +2959,13 @@
         <v>359803</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2980,13 @@
         <v>724712</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>378</v>
@@ -3001,13 +2995,13 @@
         <v>392253</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>1075</v>
@@ -3016,13 +3010,13 @@
         <v>1116965</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3031,13 @@
         <v>893658</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>358</v>
@@ -3052,13 +3046,13 @@
         <v>371279</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>1214</v>
@@ -3067,13 +3061,13 @@
         <v>1264937</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3123,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D0044A-4C5F-41F9-8928-6B178AA2F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{451C8498-5464-4EB2-BA8B-0F949AF4BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F39507-C505-459A-92A7-E0E346AA59A3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D018FDBA-6CD5-4363-A1AA-CA23FD7C4A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="256">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Bastante o muy mal informado</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,06%</t>
@@ -296,7 +296,7 @@
     <t>44,03%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -401,7 +401,7 @@
     <t>51,65%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -506,7 +506,7 @@
     <t>50,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,71%</t>
@@ -614,7 +614,7 @@
     <t>54,32%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -623,7 +623,7 @@
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>26,15%</t>
@@ -632,10 +632,10 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>27,11%</t>
@@ -644,16 +644,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -662,19 +659,13 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -683,13 +674,25 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1212,8 +1215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF506737-EEBC-442B-B1CC-4A6017173EED}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A9F548-F2EC-455B-BE6E-53AE2A4EE709}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2717,19 +2720,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>3386</v>
+        <v>2568</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2738,28 +2741,28 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3363</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M31" s="7">
-        <v>4</v>
-      </c>
-      <c r="N31" s="7">
-        <v>4182</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,19 +2771,19 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2789,28 +2792,28 @@
         <v>897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>2549</v>
+        <v>896</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2849,10 +2852,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2866,55 +2869,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>64157</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
-        <v>73</v>
-      </c>
-      <c r="I34" s="7">
-        <v>77508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>141665</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,49 +2924,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>191827</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
-        <v>158</v>
-      </c>
-      <c r="I35" s="7">
-        <v>167976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>359803</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,49 +2973,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>697</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>724712</v>
+        <v>819</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
-        <v>378</v>
-      </c>
-      <c r="I36" s="7">
-        <v>392253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
-        <v>1075</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>1116965</v>
+        <v>819</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,49 +3022,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>856</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>893658</v>
+        <v>1652</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
-        <v>358</v>
-      </c>
-      <c r="I37" s="7">
-        <v>371279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
-        <v>1214</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1264937</v>
+        <v>1652</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,63 +3071,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>58</v>
+      </c>
+      <c r="D39" s="7">
+        <v>64157</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="7">
+        <v>73</v>
+      </c>
+      <c r="I39" s="7">
+        <v>77507</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="7">
+        <v>131</v>
+      </c>
+      <c r="N39" s="7">
+        <v>141665</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>182</v>
+      </c>
+      <c r="D40" s="7">
+        <v>191827</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="7">
+        <v>158</v>
+      </c>
+      <c r="I40" s="7">
+        <v>167976</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="7">
+        <v>340</v>
+      </c>
+      <c r="N40" s="7">
+        <v>359803</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>697</v>
+      </c>
+      <c r="D41" s="7">
+        <v>724712</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" s="7">
+        <v>378</v>
+      </c>
+      <c r="I41" s="7">
+        <v>392253</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1075</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1116965</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>856</v>
+      </c>
+      <c r="D42" s="7">
+        <v>893658</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="7">
+        <v>358</v>
+      </c>
+      <c r="I42" s="7">
+        <v>371278</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1214</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1264937</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1793</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1874354</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>967</v>
       </c>
-      <c r="I38" s="7">
-        <v>1009016</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1009015</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2760</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2883369</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>254</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
